--- a/biology/Botanique/Thuya_du_Sichuan/Thuya_du_Sichuan.xlsx
+++ b/biology/Botanique/Thuya_du_Sichuan/Thuya_du_Sichuan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thuja sutchuenensis
 Le thuya de Sichuan (Thuja sutchuenensis) est une espèce de thuya, conifère persistant de la famille des Cupressaceae, originaire de Chine.
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thuya de Sichuan est une espèce endémique d'une aire restreinte située à Chongqing, commune de l'Est du Sichuan en Chine.
 Cette espèce y a été découverte en 1899 par un missionnaire et botaniste français, Paul Guillaume Farges, puis a été présumée éteinte pendant 100 ans, aucune trace de cet arbre, par ailleurs apprécié pour son bois aromatique de grande valeur, n'ayant été retrouvée malgré de nombreuses recherches.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thuya de Sichuan est un arbre de taille petite à moyenne, pouvant atteindre jusqu'à 20 mètres de haut, bien qu'aucun spécimen de cette taille ne soit actuellement connu.
 Le feuillage est constitué de rameaux aplatis couverts de feuilles en forme d'écailles  de 1,5 à 4 mm de long. Elles sont de couleur verte et présentent d'étroites bandes blanches à leur face inférieure formées par les stomates.
